--- a/LEGEND/spi_legend.xlsx
+++ b/LEGEND/spi_legend.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagsi\Downloads\LEGEND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagsi\Documents\NYP\Y1S2 MODS\(IT1925) Web Development Project (WDP-WIU)\PJ2 n PJ3\LEGEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761E1661-1BFE-4116-801A-A48338380300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24659675-D96A-4A61-8679-48F15F41CE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3576" yWindow="3012" windowWidth="17280" windowHeight="8880" xr2:uid="{A8C31F6D-1AF3-451C-8495-FDF68697BD1B}"/>
+    <workbookView xWindow="3228" yWindow="2664" windowWidth="17280" windowHeight="8880" xr2:uid="{A8C31F6D-1AF3-451C-8495-FDF68697BD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="spi_legend" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>CHINA</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>legend_name</t>
-  </si>
-  <si>
-    <t>legend_code</t>
   </si>
   <si>
     <t>SUPSG</t>
@@ -205,12 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,210 +511,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC7B236-D9E7-4633-A346-BDE79F25DACE}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
